--- a/data/solicitud_credito.xlsx
+++ b/data/solicitud_credito.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -422,12 +434,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Campo</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
@@ -441,43 +453,43 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Empresa Sólida S.A. de C.V.</t>
+          <t>Empresa Sólida S.A.S.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>RFC/Identificación</t>
+          <t>NIT/Identificación</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ESO123456789</t>
+          <t>900.123.456-7</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Ingresos Mensuales</t>
+          <t>Ingresos Mensuales (COP)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>500000</t>
+          <t>120,000,000</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Monto Solicitado</t>
+          <t>Monto Solicitado (COP)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2000000</t>
+          <t>450,000,000</t>
         </is>
       </c>
     </row>
@@ -501,19 +513,19 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Expansión de inventario</t>
+          <t>Expansión de inventario y maquinaria</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Deudas Actuales</t>
+          <t>Deudas Actuales (COP)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>150000</t>
+          <t>35,000,000</t>
         </is>
       </c>
     </row>
